--- a/data/dividends_info_20260222.xlsx
+++ b/data/dividends_info_20260222.xlsx
@@ -1586,7 +1586,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1851,14 +1851,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1875,7 +1875,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1885,14 +1885,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1994,7 +1994,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2004,14 +2004,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2079,7 +2079,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2259,14 +2259,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2276,14 +2276,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2293,14 +2293,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2317,7 +2317,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2327,14 +2327,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2351,7 +2351,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2361,14 +2361,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2521,7 +2521,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2555,7 +2555,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2582,14 +2582,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2623,7 +2623,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2633,14 +2633,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2650,14 +2650,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2684,14 +2684,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2725,7 +2725,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2742,7 +2742,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2844,7 +2844,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2861,7 +2861,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2895,7 +2895,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2912,7 +2912,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2929,7 +2929,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2946,7 +2946,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2997,7 +2997,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3024,14 +3024,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3058,14 +3058,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3075,14 +3075,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3092,14 +3092,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3109,14 +3109,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3133,7 +3133,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3177,14 +3177,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3218,7 +3218,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3235,7 +3235,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3269,7 +3269,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3279,14 +3279,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3303,7 +3303,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3313,14 +3313,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3337,7 +3337,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3354,7 +3354,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3364,14 +3364,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3381,14 +3381,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3405,7 +3405,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3415,14 +3415,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3439,7 +3439,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3466,14 +3466,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3500,14 +3500,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3517,14 +3517,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3534,14 +3534,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3568,14 +3568,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3609,7 +3609,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3619,14 +3619,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3677,7 +3677,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3694,7 +3694,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3704,14 +3704,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3728,7 +3728,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3755,14 +3755,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3779,7 +3779,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3830,7 +3830,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3847,7 +3847,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3864,7 +3864,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3898,7 +3898,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3915,7 +3915,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3925,14 +3925,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3942,14 +3942,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3959,14 +3959,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3976,14 +3976,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4017,7 +4017,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4034,7 +4034,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4044,14 +4044,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4078,14 +4078,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4102,7 +4102,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4129,14 +4129,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4146,14 +4146,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4187,7 +4187,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4221,7 +4221,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4255,7 +4255,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4272,7 +4272,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4306,7 +4306,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4323,7 +4323,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4333,14 +4333,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4357,7 +4357,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4374,7 +4374,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4391,7 +4391,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4408,7 +4408,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4418,14 +4418,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4435,14 +4435,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4452,14 +4452,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4503,14 +4503,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4527,7 +4527,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4561,7 +4561,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4595,7 +4595,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4612,7 +4612,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4629,7 +4629,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4639,14 +4639,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4663,7 +4663,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4673,14 +4673,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4690,14 +4690,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4707,14 +4707,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4741,14 +4741,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4765,7 +4765,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4782,7 +4782,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4816,7 +4816,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4833,7 +4833,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4850,7 +4850,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4860,14 +4860,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5003,7 +5003,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>OPS Italia S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5020,7 +5020,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5037,7 +5037,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>DHH S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5054,7 +5054,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>NEXT RE SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5071,7 +5071,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5081,14 +5081,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5105,7 +5105,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5122,7 +5122,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5132,14 +5132,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>ZEST S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5173,7 +5173,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5183,14 +5183,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5200,14 +5200,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>Banca Profilo S.p.A.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5258,7 +5258,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5275,7 +5275,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5309,7 +5309,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>RAI WAY S.p.A.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5326,7 +5326,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ZEST S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5343,7 +5343,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5377,7 +5377,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>Nusco S.p.A.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5394,7 +5394,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RAI WAY S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5411,7 +5411,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5445,7 +5445,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Nusco S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5479,7 +5479,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Banca Profilo S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5513,7 +5513,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5530,7 +5530,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5557,14 +5557,14 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
+          <t>Porto Aviation Group S.p.A.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5581,7 +5581,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Cloudia Research S.p.A.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5591,14 +5591,14 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5615,7 +5615,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5625,14 +5625,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Softlab S.p.A.</t>
+          <t>RCS MediaGroup S.p.A.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5649,7 +5649,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Allcore S.p.A.</t>
+          <t>Softlab S.p.A.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5666,7 +5666,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Porto Aviation Group S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5683,7 +5683,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Growens S.p.A.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5700,7 +5700,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Growens S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5717,7 +5717,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
+          <t>Franchi Umberto Marmi S.p.A.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5734,7 +5734,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5744,14 +5744,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Cloudia Research S.p.A.</t>
+          <t>Egomnia S.p.A.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5785,7 +5785,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Egomnia S.p.A.</t>
+          <t>Allcore S.p.A.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5802,7 +5802,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>CAIRO COMMUNICATION S.p.A.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5812,14 +5812,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>RCS MediaGroup S.p.A.</t>
+          <t>Braga Moro Sistemi di Energia S.p.A.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5862,304 +5862,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Allcore S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cloudia Research S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DOTSTAY S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Egomnia S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Esprinet S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Growens S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Matica Fintec S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Porto Aviation Group S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RCS MediaGroup S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SABAF S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SABAF S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SIAV S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Softlab S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>